--- a/oni.xlsx
+++ b/oni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\Yuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E0D371-8896-409C-8781-2E42227A49DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFAB0F5-D86E-49ED-8D85-FC0CAECBD226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="10035" xr2:uid="{0D4186B2-482B-4BF3-A05B-9361C99F8840}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>Pricing Report</t>
   </si>
   <si>
-    <t>RQST By: ROMERO ONIRIA</t>
-  </si>
-  <si>
     <t>**** CONSTRUCTION DETAILS ****</t>
   </si>
   <si>
@@ -344,9 +341,6 @@
     <t>FNAP-CBL-144EUC</t>
   </si>
   <si>
-    <t>Generated: 05/24/2024, 08:32 AM</t>
-  </si>
-  <si>
     <t>CFAS Project #: A02RHW0</t>
   </si>
   <si>
@@ -395,18 +389,9 @@
     <t>5B92MT-024</t>
   </si>
   <si>
-    <t>190.96 HRS</t>
-  </si>
-  <si>
-    <t>134.50 HRS</t>
-  </si>
-  <si>
     <t>56.47 HRS</t>
   </si>
   <si>
-    <t>29.51 HRS</t>
-  </si>
-  <si>
     <t>3.99 HRS</t>
   </si>
   <si>
@@ -414,6 +399,21 @@
   </si>
   <si>
     <t>GABRIEL / TELCO</t>
+  </si>
+  <si>
+    <t>Generated: 05/24/2024, 09:37 AM</t>
+  </si>
+  <si>
+    <t>RQST By: ARAMIS</t>
+  </si>
+  <si>
+    <t>191.37 HRS</t>
+  </si>
+  <si>
+    <t>134.90 HRS</t>
+  </si>
+  <si>
+    <t>29.56 HRS</t>
   </si>
 </sst>
 </file>
@@ -890,69 +890,69 @@
     </row>
     <row r="3" spans="1:7" ht="85.5">
       <c r="A3" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="71.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="42.75">
       <c r="A4" s="3" t="s">
-        <v>1</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="85.5">
       <c r="A5" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="71.25">
       <c r="A7" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="28.5">
       <c r="A8" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="28.5">
       <c r="A9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="57">
       <c r="A10" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="42.75">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="D11" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="E11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="F11" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="G11" s="18" t="s">
         <v>9</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="42.75">
       <c r="A12" s="6"/>
       <c r="B12" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
@@ -973,7 +973,7 @@
     <row r="13" spans="1:7" ht="42.75">
       <c r="A13" s="6"/>
       <c r="B13" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -985,7 +985,7 @@
         <v>6</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
@@ -994,7 +994,7 @@
     <row r="14" spans="1:7" ht="42.75">
       <c r="A14" s="6"/>
       <c r="B14" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
@@ -1015,7 +1015,7 @@
     <row r="15" spans="1:7" ht="42.75">
       <c r="A15" s="6"/>
       <c r="B15" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
@@ -1036,7 +1036,7 @@
     <row r="16" spans="1:7" ht="42.75">
       <c r="A16" s="6"/>
       <c r="B16" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>27</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
@@ -1057,7 +1057,7 @@
     <row r="17" spans="1:7" ht="42.75">
       <c r="A17" s="6"/>
       <c r="B17" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G17" s="6">
         <v>0</v>
@@ -1078,7 +1078,7 @@
     <row r="18" spans="1:7" ht="28.5">
       <c r="A18" s="6"/>
       <c r="B18" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -1099,7 +1099,7 @@
     <row r="19" spans="1:7" ht="42.75">
       <c r="A19" s="6"/>
       <c r="B19" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -1120,7 +1120,7 @@
     <row r="20" spans="1:7" ht="42.75">
       <c r="A20" s="6"/>
       <c r="B20" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>958</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G20" s="6">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     <row r="21" spans="1:7" ht="42.75">
       <c r="A21" s="6"/>
       <c r="B21" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -1162,7 +1162,7 @@
     <row r="22" spans="1:7" ht="28.5">
       <c r="A22" s="6"/>
       <c r="B22" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -1183,7 +1183,7 @@
     <row r="23" spans="1:7" ht="28.5">
       <c r="A23" s="6"/>
       <c r="B23" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -1204,7 +1204,7 @@
     <row r="24" spans="1:7" ht="42.75">
       <c r="A24" s="6"/>
       <c r="B24" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G24" s="6">
         <v>0</v>
@@ -1225,7 +1225,7 @@
     <row r="25" spans="1:7" ht="28.5">
       <c r="A25" s="6"/>
       <c r="B25" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G25" s="6">
         <v>0</v>
@@ -1246,7 +1246,7 @@
     <row r="26" spans="1:7" ht="28.5">
       <c r="A26" s="6"/>
       <c r="B26" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>90</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G26" s="6">
         <v>0</v>
@@ -1277,15 +1277,15 @@
       <c r="A28" s="6"/>
       <c r="B28" s="10"/>
       <c r="C28" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1315,12 +1315,12 @@
     <row r="31" spans="1:7" ht="71.25">
       <c r="A31" s="6"/>
       <c r="B31" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F31" s="7">
         <v>32.21</v>
@@ -1332,7 +1332,7 @@
     <row r="32" spans="1:7" ht="42.75">
       <c r="A32" s="6"/>
       <c r="B32" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1357,10 +1357,10 @@
     </row>
     <row r="34" spans="1:7" ht="42.75">
       <c r="A34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>13</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1373,12 +1373,12 @@
     <row r="35" spans="1:7" ht="42.75">
       <c r="A35" s="6"/>
       <c r="B35" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F35" s="7">
         <v>145.34</v>
@@ -1390,12 +1390,12 @@
     <row r="36" spans="1:7" ht="42.75">
       <c r="A36" s="6"/>
       <c r="B36" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F36" s="7">
         <v>145.34</v>
@@ -1415,10 +1415,10 @@
     </row>
     <row r="38" spans="1:7" ht="28.5">
       <c r="A38" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1431,7 +1431,7 @@
     <row r="39" spans="1:7" ht="28.5">
       <c r="A39" s="6"/>
       <c r="B39" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1452,10 +1452,10 @@
     </row>
     <row r="41" spans="1:7" ht="42.75">
       <c r="A41" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1468,12 +1468,12 @@
     <row r="42" spans="1:7" ht="28.5">
       <c r="A42" s="6"/>
       <c r="B42" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F42" s="7">
         <v>109.9</v>
@@ -1493,10 +1493,10 @@
     </row>
     <row r="44" spans="1:7" ht="42.75">
       <c r="A44" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1509,7 +1509,7 @@
     <row r="45" spans="1:7" ht="85.5">
       <c r="A45" s="6"/>
       <c r="B45" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1522,7 +1522,7 @@
     <row r="46" spans="1:7" ht="57">
       <c r="A46" s="6"/>
       <c r="B46" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1543,10 +1543,10 @@
     </row>
     <row r="48" spans="1:7" ht="28.5">
       <c r="A48" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -1568,7 +1568,7 @@
     <row r="50" spans="1:7" ht="28.5">
       <c r="A50" s="6"/>
       <c r="B50" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -1581,7 +1581,7 @@
     <row r="51" spans="1:7" ht="28.5">
       <c r="A51" s="6"/>
       <c r="B51" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -1594,7 +1594,7 @@
     <row r="52" spans="1:7" ht="42.75">
       <c r="A52" s="6"/>
       <c r="B52" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -1606,69 +1606,69 @@
     </row>
     <row r="53" spans="1:7" ht="85.5">
       <c r="A53" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="71.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="42.75">
       <c r="A54" s="3" t="s">
-        <v>1</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="85.5">
       <c r="A55" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="71.25">
       <c r="A57" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="28.5">
       <c r="A58" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="28.5">
       <c r="A59" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="57">
       <c r="A60" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="42.75">
       <c r="A61" s="18"/>
       <c r="B61" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="D61" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D61" s="20" t="s">
+      <c r="E61" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="20" t="s">
+      <c r="F61" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F61" s="20" t="s">
+      <c r="G61" s="18" t="s">
         <v>9</v>
-      </c>
-      <c r="G61" s="18" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="6"/>
       <c r="B62" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C62" s="7">
         <v>0</v>
@@ -1680,7 +1680,7 @@
         <v>895</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G62" s="6">
         <v>0</v>
@@ -1689,7 +1689,7 @@
     <row r="63" spans="1:7" ht="28.5">
       <c r="A63" s="6"/>
       <c r="B63" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C63" s="7">
         <v>0</v>
@@ -1710,7 +1710,7 @@
     <row r="64" spans="1:7" ht="28.5">
       <c r="A64" s="6"/>
       <c r="B64" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C64" s="7">
         <v>0</v>
@@ -1722,7 +1722,7 @@
         <v>5</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G64" s="6">
         <v>0</v>
@@ -1731,7 +1731,7 @@
     <row r="65" spans="1:7" ht="42.75">
       <c r="A65" s="6"/>
       <c r="B65" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C65" s="7">
         <v>0</v>
@@ -1743,7 +1743,7 @@
         <v>3</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G65" s="6">
         <v>0</v>
@@ -1752,7 +1752,7 @@
     <row r="66" spans="1:7" ht="42.75">
       <c r="A66" s="6"/>
       <c r="B66" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C66" s="7">
         <v>0</v>
@@ -1773,7 +1773,7 @@
     <row r="67" spans="1:7" ht="28.5">
       <c r="A67" s="6"/>
       <c r="B67" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C67" s="7">
         <v>0</v>
@@ -1794,7 +1794,7 @@
     <row r="68" spans="1:7" ht="28.5">
       <c r="A68" s="6"/>
       <c r="B68" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C68" s="7">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1931</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G68" s="6">
         <v>0</v>
@@ -1815,7 +1815,7 @@
     <row r="69" spans="1:7" ht="42.75">
       <c r="A69" s="6"/>
       <c r="B69" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C69" s="7">
         <v>0</v>
@@ -1836,7 +1836,7 @@
     <row r="70" spans="1:7" ht="42.75">
       <c r="A70" s="6"/>
       <c r="B70" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C70" s="7">
         <v>0</v>
@@ -1857,7 +1857,7 @@
     <row r="71" spans="1:7" ht="42.75">
       <c r="A71" s="6"/>
       <c r="B71" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C71" s="7">
         <v>0</v>
@@ -1878,22 +1878,22 @@
     <row r="72" spans="1:7" ht="42.75">
       <c r="A72" s="6"/>
       <c r="B72" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C72" s="7">
         <v>0</v>
       </c>
       <c r="D72" s="7">
-        <v>235.72800000000001</v>
+        <v>242.928</v>
       </c>
       <c r="E72" s="7">
-        <v>1657</v>
+        <v>1707</v>
       </c>
       <c r="F72" s="7">
         <v>1.2</v>
       </c>
       <c r="G72" s="11">
-        <v>1988.4</v>
+        <v>2048.4</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -1909,15 +1909,15 @@
       <c r="A74" s="6"/>
       <c r="B74" s="10"/>
       <c r="C74" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
       <c r="G74" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -1927,12 +1927,12 @@
         <v>0</v>
       </c>
       <c r="D75" s="7">
-        <v>365.35599999999999</v>
+        <v>372.55599999999998</v>
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
       <c r="G75" s="11">
-        <v>4763.9399999999996</v>
+        <v>4823.9399999999996</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -1947,35 +1947,35 @@
     <row r="77" spans="1:7" ht="71.25">
       <c r="A77" s="6"/>
       <c r="B77" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F77" s="7">
         <v>32.21</v>
       </c>
       <c r="G77" s="11">
-        <v>6150.42</v>
+        <v>6163.59</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="42.75">
       <c r="A78" s="6"/>
       <c r="B78" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7">
-        <v>10914.36</v>
+        <v>10987.53</v>
       </c>
       <c r="F78" s="7">
         <v>0.1</v>
       </c>
       <c r="G78" s="11">
-        <v>1146.01</v>
+        <v>1153.69</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -1989,45 +1989,45 @@
     </row>
     <row r="80" spans="1:7" ht="42.75">
       <c r="A80" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>13</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
       <c r="G80" s="11">
-        <v>12060.37</v>
+        <v>12141.22</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="42.75">
       <c r="A81" s="6"/>
       <c r="B81" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F81" s="7">
         <v>145.34</v>
       </c>
       <c r="G81" s="11">
-        <v>19547.52</v>
+        <v>19606.96</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="42.75">
       <c r="A82" s="6"/>
       <c r="B82" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F82" s="7">
         <v>145.34</v>
@@ -2047,23 +2047,23 @@
     </row>
     <row r="84" spans="1:7" ht="28.5">
       <c r="A84" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
       <c r="G84" s="11">
-        <v>27754.49</v>
+        <v>27813.93</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="28.5">
       <c r="A85" s="6"/>
       <c r="B85" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -2084,10 +2084,10 @@
     </row>
     <row r="87" spans="1:7" ht="42.75">
       <c r="A87" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -2100,18 +2100,18 @@
     <row r="88" spans="1:7" ht="28.5">
       <c r="A88" s="6"/>
       <c r="B88" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F88" s="7">
         <v>109.9</v>
       </c>
       <c r="G88" s="11">
-        <v>3242.72</v>
+        <v>3248.62</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2125,36 +2125,36 @@
     </row>
     <row r="90" spans="1:7" ht="42.75">
       <c r="A90" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
       <c r="G90" s="11">
-        <v>3242.72</v>
+        <v>3248.62</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="85.5">
       <c r="A91" s="6"/>
       <c r="B91" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
       <c r="G91" s="11">
-        <v>47958.87</v>
+        <v>48105.08</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="57">
       <c r="A92" s="6"/>
       <c r="B92" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -2175,17 +2175,17 @@
     </row>
     <row r="94" spans="1:7" ht="28.5">
       <c r="A94" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
       <c r="G94" s="11">
-        <v>54570.87</v>
+        <v>54717.08</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2200,12 +2200,12 @@
     <row r="96" spans="1:7" ht="28.5">
       <c r="A96" s="6"/>
       <c r="B96" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7">
-        <v>190.96</v>
+        <v>191.37</v>
       </c>
       <c r="F96" s="7"/>
       <c r="G96" s="6"/>
@@ -2213,12 +2213,12 @@
     <row r="97" spans="1:7" ht="28.5">
       <c r="A97" s="6"/>
       <c r="B97" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
       <c r="E97" s="7">
-        <v>29.51</v>
+        <v>29.56</v>
       </c>
       <c r="F97" s="7"/>
       <c r="G97" s="6"/>
@@ -2226,7 +2226,7 @@
     <row r="98" spans="1:7" ht="42.75">
       <c r="A98" s="6"/>
       <c r="B98" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -2238,69 +2238,69 @@
     </row>
     <row r="99" spans="1:7" ht="85.5">
       <c r="A99" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="71.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="42.75">
       <c r="A100" s="3" t="s">
-        <v>1</v>
+        <v>122</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="85.5">
       <c r="A101" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="71.25">
       <c r="A103" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="28.5">
       <c r="A104" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="28.5">
       <c r="A105" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="57">
       <c r="A106" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="42.75">
       <c r="A107" s="18"/>
       <c r="B107" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C107" s="20" t="s">
+      <c r="D107" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D107" s="20" t="s">
+      <c r="E107" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E107" s="20" t="s">
+      <c r="F107" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F107" s="20" t="s">
+      <c r="G107" s="18" t="s">
         <v>9</v>
-      </c>
-      <c r="G107" s="18" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="42.75">
       <c r="A108" s="6"/>
       <c r="B108" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C108" s="7">
         <v>0</v>
@@ -2312,7 +2312,7 @@
         <v>3</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G108" s="6">
         <v>0</v>
@@ -2321,7 +2321,7 @@
     <row r="109" spans="1:7" ht="28.5">
       <c r="A109" s="6"/>
       <c r="B109" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C109" s="7">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>559</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G109" s="6">
         <v>0</v>
@@ -2352,15 +2352,15 @@
       <c r="A111" s="6"/>
       <c r="B111" s="10"/>
       <c r="C111" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
       <c r="G111" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2398,10 +2398,10 @@
     </row>
     <row r="115" spans="1:7" ht="42.75">
       <c r="A115" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="B115" s="10" t="s">
-        <v>13</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -2414,12 +2414,12 @@
     <row r="116" spans="1:7" ht="42.75">
       <c r="A116" s="6"/>
       <c r="B116" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
       <c r="E116" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F116" s="7">
         <v>145.34</v>
@@ -2431,12 +2431,12 @@
     <row r="117" spans="1:7" ht="42.75">
       <c r="A117" s="6"/>
       <c r="B117" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
       <c r="E117" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F117" s="7">
         <v>145.34</v>
@@ -2456,10 +2456,10 @@
     </row>
     <row r="119" spans="1:7" ht="28.5">
       <c r="A119" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -2472,7 +2472,7 @@
     <row r="120" spans="1:7" ht="28.5">
       <c r="A120" s="6"/>
       <c r="B120" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -2493,10 +2493,10 @@
     </row>
     <row r="122" spans="1:7" ht="42.75">
       <c r="A122" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -2509,12 +2509,12 @@
     <row r="123" spans="1:7" ht="28.5">
       <c r="A123" s="6"/>
       <c r="B123" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
       <c r="E123" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F123" s="7">
         <v>109.9</v>
@@ -2534,10 +2534,10 @@
     </row>
     <row r="125" spans="1:7" ht="42.75">
       <c r="A125" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -2550,7 +2550,7 @@
     <row r="126" spans="1:7" ht="85.5">
       <c r="A126" s="6"/>
       <c r="B126" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -2563,7 +2563,7 @@
     <row r="127" spans="1:7" ht="57">
       <c r="A127" s="6"/>
       <c r="B127" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -2584,10 +2584,10 @@
     </row>
     <row r="129" spans="1:7" ht="28.5">
       <c r="A129" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -2609,7 +2609,7 @@
     <row r="131" spans="1:7" ht="28.5">
       <c r="A131" s="6"/>
       <c r="B131" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -2622,7 +2622,7 @@
     <row r="132" spans="1:7" ht="28.5">
       <c r="A132" s="6"/>
       <c r="B132" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -2635,7 +2635,7 @@
     <row r="133" spans="1:7" ht="42.75">
       <c r="A133" s="6"/>
       <c r="B133" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
@@ -2647,62 +2647,62 @@
     </row>
     <row r="134" spans="1:7" ht="85.5">
       <c r="A134" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="71.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="42.75">
       <c r="A135" s="3" t="s">
-        <v>1</v>
+        <v>122</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="99.75">
       <c r="A136" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="71.25">
       <c r="A138" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="28.5">
       <c r="A139" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="57">
       <c r="A140" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="57">
       <c r="A141" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B141" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B141" s="20" t="s">
+      <c r="C141" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C141" s="20" t="s">
+      <c r="D141" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D141" s="20" t="s">
+      <c r="E141" s="18" t="s">
         <v>44</v>
-      </c>
-      <c r="E141" s="18" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B142" s="12">
-        <v>154630</v>
+        <v>154776.21</v>
       </c>
       <c r="C142" s="7">
         <v>0</v>
@@ -2717,22 +2717,22 @@
     <row r="143" spans="1:7" ht="28.5">
       <c r="A143" s="8"/>
       <c r="B143" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="8"/>
       <c r="B144" s="12">
-        <v>154630</v>
+        <v>154776.21</v>
       </c>
       <c r="C144" s="7">
         <v>0</v>
@@ -2753,7 +2753,7 @@
     </row>
     <row r="146" spans="1:5" ht="42.75">
       <c r="A146" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B146" s="7"/>
       <c r="C146" s="7">
@@ -2764,11 +2764,11 @@
     </row>
     <row r="147" spans="1:5" ht="42.75">
       <c r="A147" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B147" s="7"/>
       <c r="C147" s="7">
-        <v>673.26800000000003</v>
+        <v>680.46799999999996</v>
       </c>
       <c r="D147" s="7"/>
       <c r="E147" s="6"/>
@@ -2782,7 +2782,7 @@
     </row>
     <row r="149" spans="1:5" ht="71.25">
       <c r="A149" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B149" s="7"/>
       <c r="C149" s="13">
@@ -2793,33 +2793,33 @@
     </row>
     <row r="150" spans="1:5" ht="71.25">
       <c r="A150" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B150" s="7"/>
       <c r="C150" s="13">
-        <v>9661.68</v>
+        <v>9667.58</v>
       </c>
       <c r="D150" s="7"/>
       <c r="E150" s="6"/>
     </row>
     <row r="151" spans="1:5" ht="85.5">
       <c r="A151" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B151" s="7"/>
       <c r="C151" s="13">
-        <v>154630</v>
+        <v>154776.21</v>
       </c>
       <c r="D151" s="7"/>
       <c r="E151" s="6"/>
     </row>
     <row r="152" spans="1:5" ht="57">
       <c r="A152" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B152" s="7"/>
       <c r="C152" s="13">
-        <v>154630</v>
+        <v>154776.21</v>
       </c>
       <c r="D152" s="7"/>
       <c r="E152" s="6"/>
@@ -2827,10 +2827,10 @@
     <row r="153" spans="1:5" ht="42.75">
       <c r="A153" s="8"/>
       <c r="B153" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C153" s="7">
-        <v>265.41000000000003</v>
+        <v>265.82</v>
       </c>
       <c r="D153" s="7"/>
       <c r="E153" s="6"/>
@@ -2838,10 +2838,10 @@
     <row r="154" spans="1:5" ht="42.75">
       <c r="A154" s="8"/>
       <c r="B154" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C154" s="7">
-        <v>87.91</v>
+        <v>87.96</v>
       </c>
       <c r="D154" s="7"/>
       <c r="E154" s="6"/>
@@ -2849,7 +2849,7 @@
     <row r="155" spans="1:5" ht="57">
       <c r="A155" s="8"/>
       <c r="B155" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C155" s="7">
         <v>0</v>
@@ -2860,7 +2860,7 @@
     <row r="156" spans="1:5" ht="71.25">
       <c r="A156" s="8"/>
       <c r="B156" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C156" s="7">
         <v>0</v>
@@ -2870,59 +2870,59 @@
     </row>
     <row r="157" spans="1:5" ht="85.5">
       <c r="A157" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="71.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="42.75">
       <c r="A158" s="3" t="s">
-        <v>1</v>
+        <v>122</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="85.5">
       <c r="A159" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="71.25">
       <c r="A161" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="28.5">
       <c r="A162" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="57">
       <c r="A163" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="42.75">
       <c r="A164" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B164" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B164" s="20" t="s">
+      <c r="C164" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D164" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C164" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D164" s="20" t="s">
+      <c r="E164" s="18" t="s">
         <v>59</v>
-      </c>
-      <c r="E164" s="18" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="57">
       <c r="A165" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B165" s="7">
         <v>0</v>
@@ -2941,18 +2941,18 @@
       <c r="A166" s="8"/>
       <c r="B166" s="7"/>
       <c r="C166" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="28.5">
       <c r="A167" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B167" s="7"/>
       <c r="C167" s="7">
@@ -2967,22 +2967,22 @@
     </row>
     <row r="168" spans="1:5" ht="42.75">
       <c r="A168" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B168" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B168" s="20" t="s">
-        <v>63</v>
-      </c>
       <c r="C168" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D168" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E168" s="21"/>
     </row>
     <row r="169" spans="1:5" ht="42.75">
       <c r="A169" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B169" s="7">
         <v>8</v>
@@ -2997,7 +2997,7 @@
     </row>
     <row r="170" spans="1:5" ht="57">
       <c r="A170" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B170" s="7">
         <v>12</v>
@@ -3012,7 +3012,7 @@
     </row>
     <row r="171" spans="1:5" ht="42.75">
       <c r="A171" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B171" s="7">
         <v>24</v>
@@ -3027,7 +3027,7 @@
     </row>
     <row r="172" spans="1:5" ht="57">
       <c r="A172" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B172" s="7">
         <v>0</v>
@@ -3042,7 +3042,7 @@
     </row>
     <row r="173" spans="1:5" ht="42.75">
       <c r="A173" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B173" s="7">
         <v>24</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="174" spans="1:5" ht="57">
       <c r="A174" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B174" s="7">
         <v>216</v>
@@ -3072,7 +3072,7 @@
     </row>
     <row r="175" spans="1:5" ht="57">
       <c r="A175" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B175" s="7">
         <v>24</v>
@@ -3087,22 +3087,22 @@
     </row>
     <row r="176" spans="1:5" ht="57">
       <c r="A176" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B176" s="7">
         <v>144</v>
       </c>
       <c r="C176" s="7">
-        <v>1657</v>
+        <v>1707</v>
       </c>
       <c r="D176" s="7">
-        <v>235.72800000000001</v>
+        <v>242.928</v>
       </c>
       <c r="E176" s="8"/>
     </row>
     <row r="177" spans="1:5" ht="42.75">
       <c r="A177" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B177" s="7">
         <v>24</v>
@@ -3117,7 +3117,7 @@
     </row>
     <row r="178" spans="1:5" ht="57">
       <c r="A178" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B178" s="7">
         <v>48</v>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="179" spans="1:5" ht="42.75">
       <c r="A179" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B179" s="7">
         <v>144</v>
@@ -3149,121 +3149,121 @@
       <c r="A180" s="8"/>
       <c r="B180" s="7"/>
       <c r="C180" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E180" s="8"/>
     </row>
     <row r="181" spans="1:5" ht="28.5">
       <c r="A181" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B181" s="7"/>
       <c r="C181" s="7">
-        <v>11800</v>
+        <v>11850</v>
       </c>
       <c r="D181" s="7">
-        <v>673.16399999999999</v>
+        <v>680.36400000000003</v>
       </c>
       <c r="E181" s="8"/>
     </row>
     <row r="182" spans="1:5" ht="85.5">
       <c r="A182" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="71.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="42.75">
       <c r="A183" s="3" t="s">
-        <v>1</v>
+        <v>122</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="114">
       <c r="A184" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="71.25">
       <c r="A186" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="28.5">
       <c r="A187" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="57">
       <c r="A188" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="156.75">
       <c r="A189" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="185.25">
       <c r="A190" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="85.5">
       <c r="A191" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="71.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="42.75">
       <c r="A192" s="3" t="s">
-        <v>1</v>
+        <v>122</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="57">
       <c r="A193" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="71.25">
       <c r="A195" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="28.5">
       <c r="A196" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="28.5">
       <c r="A197" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="57">
       <c r="A198" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="42.75" customHeight="1">
       <c r="A199" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B199" s="24"/>
       <c r="C199" s="23"/>
     </row>
     <row r="200" spans="1:3" ht="28.5" customHeight="1">
       <c r="A200" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B200" s="15"/>
       <c r="C200" s="17">
@@ -3272,7 +3272,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B201" s="9">
         <v>0</v>
@@ -3281,7 +3281,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B202" s="9">
         <v>0</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="203" spans="1:3" ht="28.5">
       <c r="A203" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B203" s="9">
         <v>0</v>
@@ -3299,7 +3299,7 @@
     </row>
     <row r="204" spans="1:3" ht="28.5" customHeight="1">
       <c r="A204" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B204" s="15"/>
       <c r="C204" s="17">
@@ -3308,7 +3308,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B205" s="9">
         <v>0</v>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B206" s="9">
         <v>0</v>
@@ -3326,7 +3326,7 @@
     </row>
     <row r="207" spans="1:3" ht="28.5">
       <c r="A207" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B207" s="9">
         <v>0</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="208" spans="1:3" ht="28.5" customHeight="1">
       <c r="A208" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B208" s="15"/>
       <c r="C208" s="17">
@@ -3344,7 +3344,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B209" s="9">
         <v>0</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B210" s="9">
         <v>0</v>
@@ -3362,7 +3362,7 @@
     </row>
     <row r="211" spans="1:3" ht="28.5">
       <c r="A211" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B211" s="9">
         <v>0</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="212" spans="1:3" ht="28.5" customHeight="1">
       <c r="A212" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B212" s="15"/>
       <c r="C212" s="17">
@@ -3380,7 +3380,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B213" s="9">
         <v>0</v>
@@ -3389,7 +3389,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B214" s="9">
         <v>0</v>
@@ -3398,7 +3398,7 @@
     </row>
     <row r="215" spans="1:3" ht="28.5">
       <c r="A215" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B215" s="9">
         <v>0</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="216" spans="1:3" ht="28.5" customHeight="1">
       <c r="A216" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B216" s="15"/>
       <c r="C216" s="17">
@@ -3416,7 +3416,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B217" s="9">
         <v>0</v>
@@ -3425,7 +3425,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B218" s="9">
         <v>0</v>
@@ -3434,7 +3434,7 @@
     </row>
     <row r="219" spans="1:3" ht="28.5">
       <c r="A219" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B219" s="9">
         <v>0</v>
@@ -3443,7 +3443,7 @@
     </row>
     <row r="220" spans="1:3" ht="42.75" customHeight="1">
       <c r="A220" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B220" s="15"/>
       <c r="C220" s="16">
@@ -3452,7 +3452,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B221" s="14">
         <v>28335</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B222" s="14">
         <v>6612</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="223" spans="1:3" ht="28.5">
       <c r="A223" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B223" s="9">
         <v>0</v>
@@ -3481,12 +3481,12 @@
       <c r="A224" s="15"/>
       <c r="B224" s="15"/>
       <c r="C224" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B225" s="15"/>
       <c r="C225" s="16">
@@ -3500,13 +3500,13 @@
     </row>
     <row r="227" spans="1:7" ht="99.75">
       <c r="A227" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B227" s="23"/>
     </row>
     <row r="228" spans="1:7" ht="85.5">
       <c r="A228" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B228" s="16">
         <v>34947</v>
@@ -3518,97 +3518,97 @@
     </row>
     <row r="230" spans="1:7" ht="85.5">
       <c r="A230" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" ht="71.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="42.75">
       <c r="A231" s="3" t="s">
-        <v>1</v>
+        <v>122</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="71.25">
       <c r="A232" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="71.25">
       <c r="A234" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="28.5">
       <c r="A235" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="57">
       <c r="A236" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="71.25">
       <c r="A237" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B237" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B237" s="19" t="s">
+      <c r="C237" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C237" s="19" t="s">
+      <c r="D237" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D237" s="19" t="s">
+      <c r="E237" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="E237" s="20" t="s">
+      <c r="F237" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F237" s="20" t="s">
-        <v>90</v>
-      </c>
       <c r="G237" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="42.75">
       <c r="A238" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D238" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E238" s="7">
-        <v>154.06</v>
+        <v>154.47</v>
       </c>
       <c r="F238" s="7">
         <v>145.34</v>
       </c>
       <c r="G238" s="11">
-        <v>22391.08</v>
+        <v>22450.67</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="42.75">
       <c r="A239" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D239" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E239" s="7">
         <v>53.65</v>
@@ -3622,16 +3622,16 @@
     </row>
     <row r="240" spans="1:7" ht="42.75">
       <c r="A240" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C240" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D240" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E240" s="7">
         <v>57.6</v>
@@ -3645,16 +3645,16 @@
     </row>
     <row r="241" spans="1:7" ht="42.75">
       <c r="A241" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D241" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E241" s="7">
         <v>0</v>
@@ -3672,11 +3672,11 @@
       <c r="C242" s="10"/>
       <c r="D242" s="10"/>
       <c r="E242" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F242" s="7"/>
       <c r="G242" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -3685,15 +3685,24 @@
       <c r="C243" s="10"/>
       <c r="D243" s="10"/>
       <c r="E243" s="7">
-        <v>265.31</v>
+        <v>265.72000000000003</v>
       </c>
       <c r="F243" s="7"/>
       <c r="G243" s="11">
-        <v>38575.269999999997</v>
+        <v>38634.71</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="C208:C211"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="C212:C215"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="C200:C203"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="C204:C207"/>
     <mergeCell ref="A225:B225"/>
     <mergeCell ref="A226:B226"/>
     <mergeCell ref="C225:C226"/>
@@ -3703,15 +3712,6 @@
     <mergeCell ref="A220:B220"/>
     <mergeCell ref="C220:C223"/>
     <mergeCell ref="A224:B224"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="C200:C203"/>
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="C204:C207"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="C208:C211"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="C212:C215"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/oni.xlsx
+++ b/oni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\Yuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFAB0F5-D86E-49ED-8D85-FC0CAECBD226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A08B86F-7A9F-420D-A34C-8A26FEFCC47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="10035" xr2:uid="{0D4186B2-482B-4BF3-A05B-9361C99F8840}"/>
   </bookViews>
@@ -401,12 +401,6 @@
     <t>GABRIEL / TELCO</t>
   </si>
   <si>
-    <t>Generated: 05/24/2024, 09:37 AM</t>
-  </si>
-  <si>
-    <t>RQST By: ARAMIS</t>
-  </si>
-  <si>
     <t>191.37 HRS</t>
   </si>
   <si>
@@ -414,6 +408,12 @@
   </si>
   <si>
     <t>29.56 HRS</t>
+  </si>
+  <si>
+    <t>Generated: 05/24/2024, 11:15 AM</t>
+  </si>
+  <si>
+    <t>RQST By: ROMERO ONIRIA</t>
   </si>
 </sst>
 </file>
@@ -531,10 +531,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -890,12 +890,12 @@
     </row>
     <row r="3" spans="1:7" ht="85.5">
       <c r="A3" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="42.75">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="71.25">
       <c r="A4" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="85.5">
@@ -1529,7 +1529,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="11">
-        <v>28335</v>
+        <v>27999</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1553,7 +1553,7 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="11">
-        <v>94750.54</v>
+        <v>94414.54</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1606,12 +1606,12 @@
     </row>
     <row r="53" spans="1:7" ht="85.5">
       <c r="A53" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="42.75">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="71.25">
       <c r="A54" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="85.5">
@@ -1952,7 +1952,7 @@
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F77" s="7">
         <v>32.21</v>
@@ -2010,7 +2010,7 @@
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F81" s="7">
         <v>145.34</v>
@@ -2105,7 +2105,7 @@
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F88" s="7">
         <v>109.9</v>
@@ -2238,12 +2238,12 @@
     </row>
     <row r="99" spans="1:7" ht="85.5">
       <c r="A99" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="42.75">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="71.25">
       <c r="A100" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="85.5">
@@ -2647,12 +2647,12 @@
     </row>
     <row r="134" spans="1:7" ht="85.5">
       <c r="A134" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="42.75">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="71.25">
       <c r="A135" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="99.75">
@@ -2702,7 +2702,7 @@
         <v>45</v>
       </c>
       <c r="B142" s="12">
-        <v>154776.21</v>
+        <v>154440.21</v>
       </c>
       <c r="C142" s="7">
         <v>0</v>
@@ -2732,7 +2732,7 @@
     <row r="144" spans="1:7">
       <c r="A144" s="8"/>
       <c r="B144" s="12">
-        <v>154776.21</v>
+        <v>154440.21</v>
       </c>
       <c r="C144" s="7">
         <v>0</v>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="B151" s="7"/>
       <c r="C151" s="13">
-        <v>154776.21</v>
+        <v>154440.21</v>
       </c>
       <c r="D151" s="7"/>
       <c r="E151" s="6"/>
@@ -2819,7 +2819,7 @@
       </c>
       <c r="B152" s="7"/>
       <c r="C152" s="13">
-        <v>154776.21</v>
+        <v>154440.21</v>
       </c>
       <c r="D152" s="7"/>
       <c r="E152" s="6"/>
@@ -2870,12 +2870,12 @@
     </row>
     <row r="157" spans="1:5" ht="85.5">
       <c r="A157" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="42.75">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="71.25">
       <c r="A158" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="85.5">
@@ -3171,12 +3171,12 @@
     </row>
     <row r="182" spans="1:5" ht="85.5">
       <c r="A182" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="42.75">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="71.25">
       <c r="A183" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="114">
@@ -3216,12 +3216,12 @@
     </row>
     <row r="191" spans="1:5" ht="85.5">
       <c r="A191" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="42.75">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="71.25">
       <c r="A192" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="57">
@@ -3266,7 +3266,7 @@
         <v>71</v>
       </c>
       <c r="B200" s="15"/>
-      <c r="C200" s="17">
+      <c r="C200" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       <c r="B201" s="9">
         <v>0</v>
       </c>
-      <c r="C201" s="17"/>
+      <c r="C201" s="16"/>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="8" t="s">
@@ -3286,7 +3286,7 @@
       <c r="B202" s="9">
         <v>0</v>
       </c>
-      <c r="C202" s="17"/>
+      <c r="C202" s="16"/>
     </row>
     <row r="203" spans="1:3" ht="28.5">
       <c r="A203" s="8" t="s">
@@ -3295,14 +3295,14 @@
       <c r="B203" s="9">
         <v>0</v>
       </c>
-      <c r="C203" s="17"/>
+      <c r="C203" s="16"/>
     </row>
     <row r="204" spans="1:3" ht="28.5" customHeight="1">
       <c r="A204" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B204" s="15"/>
-      <c r="C204" s="17">
+      <c r="C204" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3313,7 +3313,7 @@
       <c r="B205" s="9">
         <v>0</v>
       </c>
-      <c r="C205" s="17"/>
+      <c r="C205" s="16"/>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="8" t="s">
@@ -3322,7 +3322,7 @@
       <c r="B206" s="9">
         <v>0</v>
       </c>
-      <c r="C206" s="17"/>
+      <c r="C206" s="16"/>
     </row>
     <row r="207" spans="1:3" ht="28.5">
       <c r="A207" s="8" t="s">
@@ -3331,14 +3331,14 @@
       <c r="B207" s="9">
         <v>0</v>
       </c>
-      <c r="C207" s="17"/>
+      <c r="C207" s="16"/>
     </row>
     <row r="208" spans="1:3" ht="28.5" customHeight="1">
       <c r="A208" s="15" t="s">
         <v>76</v>
       </c>
       <c r="B208" s="15"/>
-      <c r="C208" s="17">
+      <c r="C208" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3349,7 +3349,7 @@
       <c r="B209" s="9">
         <v>0</v>
       </c>
-      <c r="C209" s="17"/>
+      <c r="C209" s="16"/>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="8" t="s">
@@ -3358,7 +3358,7 @@
       <c r="B210" s="9">
         <v>0</v>
       </c>
-      <c r="C210" s="17"/>
+      <c r="C210" s="16"/>
     </row>
     <row r="211" spans="1:3" ht="28.5">
       <c r="A211" s="8" t="s">
@@ -3367,14 +3367,14 @@
       <c r="B211" s="9">
         <v>0</v>
       </c>
-      <c r="C211" s="17"/>
+      <c r="C211" s="16"/>
     </row>
     <row r="212" spans="1:3" ht="28.5" customHeight="1">
       <c r="A212" s="15" t="s">
         <v>77</v>
       </c>
       <c r="B212" s="15"/>
-      <c r="C212" s="17">
+      <c r="C212" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3385,7 +3385,7 @@
       <c r="B213" s="9">
         <v>0</v>
       </c>
-      <c r="C213" s="17"/>
+      <c r="C213" s="16"/>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="8" t="s">
@@ -3394,7 +3394,7 @@
       <c r="B214" s="9">
         <v>0</v>
       </c>
-      <c r="C214" s="17"/>
+      <c r="C214" s="16"/>
     </row>
     <row r="215" spans="1:3" ht="28.5">
       <c r="A215" s="8" t="s">
@@ -3403,14 +3403,14 @@
       <c r="B215" s="9">
         <v>0</v>
       </c>
-      <c r="C215" s="17"/>
+      <c r="C215" s="16"/>
     </row>
     <row r="216" spans="1:3" ht="28.5" customHeight="1">
       <c r="A216" s="15" t="s">
         <v>78</v>
       </c>
       <c r="B216" s="15"/>
-      <c r="C216" s="17">
+      <c r="C216" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       <c r="B217" s="9">
         <v>0</v>
       </c>
-      <c r="C217" s="17"/>
+      <c r="C217" s="16"/>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="8" t="s">
@@ -3430,7 +3430,7 @@
       <c r="B218" s="9">
         <v>0</v>
       </c>
-      <c r="C218" s="17"/>
+      <c r="C218" s="16"/>
     </row>
     <row r="219" spans="1:3" ht="28.5">
       <c r="A219" s="8" t="s">
@@ -3439,15 +3439,15 @@
       <c r="B219" s="9">
         <v>0</v>
       </c>
-      <c r="C219" s="17"/>
+      <c r="C219" s="16"/>
     </row>
     <row r="220" spans="1:3" ht="42.75" customHeight="1">
       <c r="A220" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B220" s="15"/>
-      <c r="C220" s="16">
-        <v>34947</v>
+      <c r="C220" s="17">
+        <v>34611</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3455,9 +3455,9 @@
         <v>72</v>
       </c>
       <c r="B221" s="14">
-        <v>28335</v>
-      </c>
-      <c r="C221" s="16"/>
+        <v>27999</v>
+      </c>
+      <c r="C221" s="17"/>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="8" t="s">
@@ -3466,7 +3466,7 @@
       <c r="B222" s="14">
         <v>6612</v>
       </c>
-      <c r="C222" s="16"/>
+      <c r="C222" s="17"/>
     </row>
     <row r="223" spans="1:3" ht="28.5">
       <c r="A223" s="8" t="s">
@@ -3475,7 +3475,7 @@
       <c r="B223" s="9">
         <v>0</v>
       </c>
-      <c r="C223" s="16"/>
+      <c r="C223" s="17"/>
     </row>
     <row r="224" spans="1:3" ht="28.5">
       <c r="A224" s="15"/>
@@ -3489,14 +3489,14 @@
         <v>79</v>
       </c>
       <c r="B225" s="15"/>
-      <c r="C225" s="16">
-        <v>34947</v>
+      <c r="C225" s="17">
+        <v>34611</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="15"/>
       <c r="B226" s="15"/>
-      <c r="C226" s="16"/>
+      <c r="C226" s="17"/>
     </row>
     <row r="227" spans="1:7" ht="99.75">
       <c r="A227" s="21" t="s">
@@ -3508,22 +3508,22 @@
       <c r="A228" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B228" s="16">
-        <v>34947</v>
+      <c r="B228" s="17">
+        <v>34611</v>
       </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="8"/>
-      <c r="B229" s="16"/>
+      <c r="B229" s="17"/>
     </row>
     <row r="230" spans="1:7" ht="85.5">
       <c r="A230" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" ht="42.75">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="71.25">
       <c r="A231" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="71.25">
@@ -3694,6 +3694,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A226:B226"/>
+    <mergeCell ref="C225:C226"/>
+    <mergeCell ref="B228:B229"/>
+    <mergeCell ref="A216:B216"/>
+    <mergeCell ref="C216:C219"/>
+    <mergeCell ref="A220:B220"/>
+    <mergeCell ref="C220:C223"/>
+    <mergeCell ref="A224:B224"/>
     <mergeCell ref="A208:B208"/>
     <mergeCell ref="C208:C211"/>
     <mergeCell ref="A212:B212"/>
@@ -3703,15 +3712,6 @@
     <mergeCell ref="C200:C203"/>
     <mergeCell ref="A204:B204"/>
     <mergeCell ref="C204:C207"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A226:B226"/>
-    <mergeCell ref="C225:C226"/>
-    <mergeCell ref="B228:B229"/>
-    <mergeCell ref="A216:B216"/>
-    <mergeCell ref="C216:C219"/>
-    <mergeCell ref="A220:B220"/>
-    <mergeCell ref="C220:C223"/>
-    <mergeCell ref="A224:B224"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
